--- a/medicine/Pharmacie/Upadacitinib/Upadacitinib.xlsx
+++ b/medicine/Pharmacie/Upadacitinib/Upadacitinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'upadacitinib est une molécule inhibitrice sélectif de la janus kinase 1.
 </t>
@@ -511,9 +523,11 @@
           <t>Pharmacodynamique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné par voie orale, la biodisponibilité atteint 80 % et sa concentration ne varie pas significativement selon le sexe, la maladie et en cas d'insuffisance rénale modérée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné par voie orale, la biodisponibilité atteint 80 % et sa concentration ne varie pas significativement selon le sexe, la maladie et en cas d'insuffisance rénale modérée.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la polyarthrite rhumatoïde résistante au méthotrexate, il s'avère supérieur à l'adalimumab en ce qui concerne les symptômes et les signes radiologiques[2] et à l'abatacept en ce qui concerne les symptômes et les signes biologiques[3].
-Dans la spondylarthrite ankylosante, il est efficace dans les formes résistantes aux anti-inflammatoires[4], même en l'absence d'atteinte radiologique[5].
-Dans la dermatite atopique, il est efficace, qu'il soit donné seul[6] ou en association avec un corticoïde local[7].
-Dans la rectocolite hémorragique, il permet d'obtenir plus de rémissions par rapport à un traitement placebo[8]. L'indication en a été retenue pour cette affection par la Food and Drug Administration en 2022[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la polyarthrite rhumatoïde résistante au méthotrexate, il s'avère supérieur à l'adalimumab en ce qui concerne les symptômes et les signes radiologiques et à l'abatacept en ce qui concerne les symptômes et les signes biologiques.
+Dans la spondylarthrite ankylosante, il est efficace dans les formes résistantes aux anti-inflammatoires, même en l'absence d'atteinte radiologique.
+Dans la dermatite atopique, il est efficace, qu'il soit donné seul ou en association avec un corticoïde local.
+Dans la rectocolite hémorragique, il permet d'obtenir plus de rémissions par rapport à un traitement placebo. L'indication en a été retenue pour cette affection par la Food and Drug Administration en 2022.
 </t>
         </is>
       </c>
